--- a/data/Индекс LME.xlsx
+++ b/data/Индекс LME.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D6407-BE0F-44A0-B6CA-67592E8621EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,29 +25,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>дата</t>
-  </si>
-  <si>
     <t>цена</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>dt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\ * #,##0.00&quot;    &quot;;\-* #,##0.00&quot;    &quot;;\ * \-#&quot;    &quot;;\ @\ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,69 +553,70 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="34"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="34" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="33" borderId="10" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="11" xfId="34" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="34" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="33" borderId="10" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="11" xfId="34" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="34" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% — акцент1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -621,12 +631,12 @@
     <cellStyle name="40% — акцент4" xfId="27" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент5" xfId="30" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент6" xfId="33" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1 2" xfId="37"/>
-    <cellStyle name="60% — акцент2 2" xfId="38"/>
-    <cellStyle name="60% — акцент3 2" xfId="39"/>
-    <cellStyle name="60% — акцент4 2" xfId="40"/>
-    <cellStyle name="60% — акцент5 2" xfId="41"/>
-    <cellStyle name="60% — акцент6 2" xfId="42"/>
+    <cellStyle name="60% — акцент1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% — акцент2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% — акцент3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% — акцент4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% — акцент5 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% — акцент6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Акцент1" xfId="16" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="19" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="22" builtinId="37" customBuiltin="1"/>
@@ -643,20 +653,20 @@
     <cellStyle name="Итог" xfId="15" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="12" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный 2" xfId="35"/>
+    <cellStyle name="Нейтральный 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="44"/>
-    <cellStyle name="Обычный 3" xfId="46"/>
-    <cellStyle name="Обычный 4" xfId="47"/>
-    <cellStyle name="Обычный 5" xfId="34"/>
+    <cellStyle name="Обычный 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Обычный 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Обычный 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="14" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="36"/>
-    <cellStyle name="Процентный 2" xfId="43"/>
+    <cellStyle name="Примечание 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Процентный 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Связанная ячейка" xfId="11" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="13" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="48"/>
-    <cellStyle name="Финансовый 3" xfId="45"/>
+    <cellStyle name="Финансовый 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Финансовый 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="G345" sqref="G345"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,11 +957,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5085,11 +5095,11 @@
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B518"/>
+  <autoFilter ref="A1:B518" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>